--- a/classfiers/mega/svm/mega-svm-linear-results.xlsx
+++ b/classfiers/mega/svm/mega-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5662650602409639</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7175572519083969</v>
+        <v>0.722689075630252</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9883512544802866</v>
+        <v>0.9878967186659495</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="E3" t="n">
-        <v>0.998991935483871</v>
+        <v>0.9997310381925767</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.96</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9195402298850576</v>
+        <v>0.9249999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5319148936170213</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7536231884057971</v>
       </c>
       <c r="E6" t="n">
-        <v>0.944863875543354</v>
+        <v>0.9823861290766479</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9052530120481928</v>
+        <v>0.9101212121212121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.839095744680851</v>
+        <v>0.8657505285412264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8440449344127003</v>
+        <v>0.8659154094614128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9864414131015022</v>
+        <v>0.9940027771870348</v>
       </c>
     </row>
   </sheetData>
